--- a/output/edificando comunidad de nazaret.xlsx
+++ b/output/edificando comunidad de nazaret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -663,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ68"/>
+  <dimension ref="A1:AM68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,7 +681,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,10 +790,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -883,15 +901,24 @@
         <v>1</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>9677</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -990,15 +1017,24 @@
         <v>1</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>19239</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1097,15 +1133,24 @@
         <v>1</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>10176</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1204,15 +1249,24 @@
         <v>1</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>6250</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1311,15 +1365,24 @@
         <v>1</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>11565</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1418,15 +1481,24 @@
         <v>1</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>7000</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1525,15 +1597,24 @@
         <v>1</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1632,15 +1713,24 @@
         <v>1</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>25200</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1739,15 +1829,24 @@
         <v>1</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>34365</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1846,15 +1945,24 @@
         <v>1</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>4353</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1953,15 +2061,24 @@
         <v>1</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>15480</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2060,15 +2177,24 @@
         <v>1</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>5943</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2167,15 +2293,24 @@
         <v>1</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2274,15 +2409,24 @@
         <v>1</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>6500</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2381,15 +2525,24 @@
         <v>1</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>11240</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2488,15 +2641,24 @@
         <v>1</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>7442</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2595,15 +2757,24 @@
         <v>1</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>20500</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2702,15 +2873,24 @@
         <v>1</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>4735</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2809,15 +2989,24 @@
         <v>1</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>20656</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2916,15 +3105,24 @@
         <v>1</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>17369</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3023,15 +3221,24 @@
         <v>1</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>14000</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3130,15 +3337,24 @@
         <v>1</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>5795</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3237,15 +3453,24 @@
         <v>1</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>9968</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3344,15 +3569,24 @@
         <v>1</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>4842.5</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3451,15 +3685,24 @@
         <v>1</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>5800</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3558,15 +3801,24 @@
         <v>1</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>2750</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3665,15 +3917,24 @@
         <v>1</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>3393.93</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3772,15 +4033,24 @@
         <v>1</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>5000</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3879,15 +4149,24 @@
         <v>1</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>3250</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3986,15 +4265,24 @@
         <v>1</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>4000</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4093,15 +4381,24 @@
         <v>1</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>5795</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4200,15 +4497,24 @@
         <v>1</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>9968</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4307,15 +4613,24 @@
         <v>1</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>4842.5</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4414,15 +4729,24 @@
         <v>1</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>5800</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4521,15 +4845,24 @@
         <v>1</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>2750</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4628,15 +4961,24 @@
         <v>1</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>3393.93</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4735,15 +5077,24 @@
         <v>1</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>5000</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4842,15 +5193,24 @@
         <v>1</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>3250</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4949,15 +5309,24 @@
         <v>1</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>4000</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5056,15 +5425,24 @@
         <v>1</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5163,15 +5541,24 @@
         <v>1</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>3000</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5270,15 +5657,24 @@
         <v>1</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>1750</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5377,15 +5773,24 @@
         <v>1</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5484,15 +5889,24 @@
         <v>1</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>12430</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5591,15 +6005,24 @@
         <v>1</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>5200</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5698,15 +6121,24 @@
         <v>1</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>750</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5805,15 +6237,24 @@
         <v>1</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>4000</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -5912,15 +6353,24 @@
         <v>1</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>3000</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6019,15 +6469,24 @@
         <v>1</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>2500</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6126,15 +6585,24 @@
         <v>1</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>3000</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6233,15 +6701,24 @@
         <v>1</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>1750</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6340,15 +6817,24 @@
         <v>1</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6447,15 +6933,24 @@
         <v>1</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>12430</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6554,15 +7049,24 @@
         <v>1</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>5200</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6661,15 +7165,24 @@
         <v>1</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>750</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6768,15 +7281,24 @@
         <v>1</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>4000</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6875,15 +7397,24 @@
         <v>1</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -6982,15 +7513,24 @@
         <v>1</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7089,15 +7629,24 @@
         <v>1</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>1</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>4500</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7196,15 +7745,24 @@
         <v>1</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>6062</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7303,15 +7861,24 @@
         <v>1</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>3080</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7410,15 +7977,24 @@
         <v>1</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>5550</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7517,15 +8093,24 @@
         <v>1</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>1</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>17910</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7624,15 +8209,24 @@
         <v>1</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>1</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>13465</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7731,15 +8325,24 @@
         <v>1</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7838,15 +8441,24 @@
         <v>1</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>8000</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -7945,9 +8557,18 @@
         <v>1</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>5000</v>
       </c>
     </row>

--- a/output/edificando comunidad de nazaret.xlsx
+++ b/output/edificando comunidad de nazaret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -672,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM68"/>
+  <dimension ref="A1:AO68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,7 +687,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,10 +805,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -901,24 +913,30 @@
         <v>1</v>
       </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
         <v>1987</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>9677</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1017,24 +1035,30 @@
         <v>1</v>
       </c>
       <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
         <v>1987</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>19239</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1133,24 +1157,30 @@
         <v>1</v>
       </c>
       <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>1987</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>10176</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1249,24 +1279,30 @@
         <v>1</v>
       </c>
       <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>1987</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>6250</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1365,24 +1401,30 @@
         <v>1</v>
       </c>
       <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>1987</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>11565</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1481,24 +1523,30 @@
         <v>1</v>
       </c>
       <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
         <v>1987</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>7000</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1597,24 +1645,30 @@
         <v>1</v>
       </c>
       <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>1987</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1713,24 +1767,30 @@
         <v>1</v>
       </c>
       <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
         <v>1987</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>25200</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1829,24 +1889,30 @@
         <v>1</v>
       </c>
       <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>1987</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>34365</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1945,24 +2011,30 @@
         <v>1</v>
       </c>
       <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <v>1987</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>4353</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2061,24 +2133,30 @@
         <v>1</v>
       </c>
       <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>1987</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>15480</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2177,24 +2255,30 @@
         <v>1</v>
       </c>
       <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>1987</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>5943</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2293,24 +2377,30 @@
         <v>1</v>
       </c>
       <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>1987</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2409,24 +2499,30 @@
         <v>1</v>
       </c>
       <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
         <v>1987</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
         <v>1</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>6500</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2525,24 +2621,30 @@
         <v>1</v>
       </c>
       <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>1987</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>11240</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2641,24 +2743,30 @@
         <v>1</v>
       </c>
       <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
         <v>1987</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>7442</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2757,24 +2865,30 @@
         <v>1</v>
       </c>
       <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
         <v>1987</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>20500</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2873,24 +2987,30 @@
         <v>1</v>
       </c>
       <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
         <v>1987</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>4735</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2989,24 +3109,30 @@
         <v>1</v>
       </c>
       <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
         <v>1987</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20">
         <v>1</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>20656</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3105,24 +3231,30 @@
         <v>1</v>
       </c>
       <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
         <v>1987</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>17369</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3221,24 +3353,30 @@
         <v>1</v>
       </c>
       <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
         <v>1987</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>14000</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3337,24 +3475,30 @@
         <v>1</v>
       </c>
       <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
         <v>1987</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>5795</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3453,24 +3597,30 @@
         <v>1</v>
       </c>
       <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
         <v>1987</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>9968</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3569,24 +3719,30 @@
         <v>1</v>
       </c>
       <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
         <v>1987</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>4842.5</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3685,24 +3841,30 @@
         <v>1</v>
       </c>
       <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
         <v>1987</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>5800</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3801,24 +3963,30 @@
         <v>1</v>
       </c>
       <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
         <v>1987</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>2750</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3917,24 +4085,30 @@
         <v>1</v>
       </c>
       <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
         <v>1987</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>3393.93</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4033,24 +4207,30 @@
         <v>1</v>
       </c>
       <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
         <v>1987</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>5000</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4149,24 +4329,30 @@
         <v>1</v>
       </c>
       <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
         <v>1987</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>3250</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4265,24 +4451,30 @@
         <v>1</v>
       </c>
       <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
         <v>1987</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>4000</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4381,24 +4573,30 @@
         <v>1</v>
       </c>
       <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
         <v>1987</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>1</v>
       </c>
       <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>5795</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4497,24 +4695,30 @@
         <v>1</v>
       </c>
       <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
         <v>1987</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>1</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>9968</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4613,24 +4817,30 @@
         <v>1</v>
       </c>
       <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
         <v>1987</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
         <v>1</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>4842.5</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4729,24 +4939,30 @@
         <v>1</v>
       </c>
       <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
         <v>1987</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>5800</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4845,24 +5061,30 @@
         <v>1</v>
       </c>
       <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
         <v>1987</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36">
         <v>1</v>
       </c>
       <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>2750</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4961,24 +5183,30 @@
         <v>1</v>
       </c>
       <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
         <v>1987</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>3393.93</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5077,24 +5305,30 @@
         <v>1</v>
       </c>
       <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
         <v>1987</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>5000</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5193,24 +5427,30 @@
         <v>1</v>
       </c>
       <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
         <v>1987</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>3250</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5309,24 +5549,30 @@
         <v>1</v>
       </c>
       <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
         <v>1987</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>4000</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5425,24 +5671,30 @@
         <v>1</v>
       </c>
       <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
         <v>1987</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5541,24 +5793,30 @@
         <v>1</v>
       </c>
       <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
         <v>1987</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>3000</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5657,24 +5915,30 @@
         <v>1</v>
       </c>
       <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
         <v>1987</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43">
         <v>1</v>
       </c>
       <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>1750</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5773,24 +6037,30 @@
         <v>1</v>
       </c>
       <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
         <v>1987</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5889,24 +6159,30 @@
         <v>1</v>
       </c>
       <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
         <v>1987</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <v>1</v>
       </c>
       <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>12430</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6005,24 +6281,30 @@
         <v>1</v>
       </c>
       <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
         <v>1987</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46">
         <v>1</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>5200</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6121,24 +6403,30 @@
         <v>1</v>
       </c>
       <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
         <v>1987</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>750</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6237,24 +6525,30 @@
         <v>1</v>
       </c>
       <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
         <v>1987</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>4000</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6353,24 +6647,30 @@
         <v>1</v>
       </c>
       <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
         <v>1987</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>3000</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6469,24 +6769,30 @@
         <v>1</v>
       </c>
       <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
         <v>1987</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>2500</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6585,24 +6891,30 @@
         <v>1</v>
       </c>
       <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
         <v>1987</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>3000</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6701,24 +7013,30 @@
         <v>1</v>
       </c>
       <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
         <v>1987</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52">
         <v>1</v>
       </c>
       <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>1750</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6817,24 +7135,30 @@
         <v>1</v>
       </c>
       <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
         <v>1987</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
         <v>0</v>
       </c>
       <c r="AL53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6933,24 +7257,30 @@
         <v>1</v>
       </c>
       <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
         <v>1987</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54">
         <v>1</v>
       </c>
       <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>12430</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7049,24 +7379,30 @@
         <v>1</v>
       </c>
       <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
         <v>1987</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55">
         <v>1</v>
       </c>
       <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>5200</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7165,24 +7501,30 @@
         <v>1</v>
       </c>
       <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
         <v>1987</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>750</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7281,24 +7623,30 @@
         <v>1</v>
       </c>
       <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
         <v>1987</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
         <v>0</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>4000</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7397,24 +7745,30 @@
         <v>1</v>
       </c>
       <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
         <v>1987</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7513,24 +7867,30 @@
         <v>1</v>
       </c>
       <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
         <v>1987</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
         <v>0</v>
       </c>
       <c r="AL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7629,24 +7989,30 @@
         <v>1</v>
       </c>
       <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
         <v>1987</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60">
         <v>1</v>
       </c>
       <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>4500</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7745,24 +8111,30 @@
         <v>1</v>
       </c>
       <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
         <v>1987</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
         <v>0</v>
       </c>
       <c r="AL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>6062</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7861,24 +8233,30 @@
         <v>1</v>
       </c>
       <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
         <v>1987</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
         <v>0</v>
       </c>
       <c r="AL62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>3080</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7977,24 +8355,30 @@
         <v>1</v>
       </c>
       <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
         <v>1987</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
         <v>0</v>
       </c>
       <c r="AL63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>5550</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8093,24 +8477,30 @@
         <v>1</v>
       </c>
       <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
         <v>1987</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64">
         <v>1</v>
       </c>
       <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>17910</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8209,24 +8599,30 @@
         <v>1</v>
       </c>
       <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
         <v>1987</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65">
         <v>1</v>
       </c>
       <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>13465</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8325,24 +8721,30 @@
         <v>1</v>
       </c>
       <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
         <v>1987</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
         <v>0</v>
       </c>
       <c r="AL66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8441,24 +8843,30 @@
         <v>1</v>
       </c>
       <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
         <v>1987</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
         <v>0</v>
       </c>
       <c r="AL67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>8000</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -8557,18 +8965,24 @@
         <v>1</v>
       </c>
       <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
         <v>1987</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
         <v>0</v>
       </c>
       <c r="AL68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>5000</v>
       </c>
     </row>

--- a/output/edificando comunidad de nazaret.xlsx
+++ b/output/edificando comunidad de nazaret.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3450</v>
+        <v>3972.630273980753</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4140</v>
+        <v>4744.762791189912</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>3240</v>
+        <v>3587.883798243964</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>9970</v>
+        <v>17288.8595992193</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>650</v>
+        <v>672.4244025624427</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>560</v>
+        <v>534.0443668101981</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4070</v>
+        <v>4355.934938677345</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4580</v>
+        <v>5076.340174387075</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>11530</v>
+        <v>17610.30663334184</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2528,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>800</v>
+        <v>1037.747039954749</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>650</v>
+        <v>694.6031345426339</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>610</v>
+        <v>553.2014555484933</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10710</v>
+        <v>10883.31535948899</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4480</v>
+        <v>4479.398934239905</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4950</v>
+        <v>5094.472660592368</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4760</v>
+        <v>4394.543881413723</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>4170</v>
+        <v>3748.449444923865</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>13860</v>
+        <v>18254.09644617555</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>820</v>
+        <v>1057.667740311969</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>670</v>
+        <v>719.6981727039259</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>590</v>
+        <v>573.9239887389259</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>5520</v>
+        <v>5437.877690816224</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>5510</v>
+        <v>4699.493713911862</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>4780</v>
+        <v>3796.882621798447</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4968,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>14020</v>
+        <v>16764.42871195103</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5090,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>890</v>
+        <v>1102.527430026863</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>700</v>
+        <v>731.5588677998553</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>620</v>
+        <v>593.1620921048029</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>5720</v>
+        <v>5558.73713990153</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5578,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>930</v>
+        <v>1140.447753778042</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>740</v>
+        <v>741.0381351906716</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5822,7 +5822,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>13220</v>
+        <v>16146.07242861928</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>7500</v>
+        <v>6753.607115829548</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>5780</v>
+        <v>4861.287098802361</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>9610</v>
+        <v>9306.24338328295</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>5760</v>
+        <v>5589.325590947018</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6554,7 +6554,7 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>640</v>
+        <v>612.1489724037899</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6676,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>860</v>
+        <v>1128.996380299766</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>750</v>
+        <v>750.4706590411453</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6920,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>10840</v>
+        <v>14093.81249338665</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>7290</v>
+        <v>6487.899081675427</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7164,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>5620</v>
+        <v>4944.191641077407</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7286,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>9520</v>
+        <v>9712.081402446996</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>5710</v>
+        <v>5741.353911483523</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7652,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>640</v>
+        <v>630.9372503341563</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7774,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>820</v>
+        <v>1134.924536209078</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -7896,7 +7896,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>8260</v>
+        <v>12358.30403621203</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8018,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>1690</v>
+        <v>1875.732161108182</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>1360</v>
+        <v>1129.713195979213</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8262,7 +8262,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>7250</v>
+        <v>6411.986543373589</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>5390</v>
+        <v>5089.61202008711</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>9530</v>
+        <v>10236.89594140222</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>5690</v>
+        <v>5916.126072105049</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -8872,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>610</v>
+        <v>649.4459389945755</v>
       </c>
       <c r="D68">
         <v>0</v>

--- a/output/edificando comunidad de nazaret.xlsx
+++ b/output/edificando comunidad de nazaret.xlsx
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>5795</v>
+        <v>17369</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>9968</v>
+        <v>20656</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>4842.5</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>2750</v>
+        <v>6500</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>3393.93</v>
+        <v>11240</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>5000</v>
+        <v>7442</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>3250</v>
+        <v>20500</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -5462,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -6673,7 +6673,7 @@
         <v>89</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>1128.996380299766</v>
@@ -6682,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>2500</v>
+        <v>3393.93</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -6917,7 +6917,7 @@
         <v>91</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>14093.81249338665</v>
@@ -6926,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1750</v>
+        <v>2750</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>12430</v>
+        <v>9968</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>5200</v>
+        <v>5795</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>97</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>630.9372503341563</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="F58">
         <v>0</v>

--- a/output/edificando comunidad de nazaret.xlsx
+++ b/output/edificando comunidad de nazaret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -139,67 +139,7 @@
     <t>Dinero_en_el_proyecto</t>
   </si>
   <si>
-    <t>2009_guatemala</t>
-  </si>
-  <si>
-    <t>2009_paraguay</t>
-  </si>
-  <si>
-    <t>2009_peru</t>
-  </si>
-  <si>
     <t>2009_tailandia</t>
-  </si>
-  <si>
-    <t>2010_angola</t>
-  </si>
-  <si>
-    <t>2010_guinea ecuatorial</t>
-  </si>
-  <si>
-    <t>2010_guinea</t>
-  </si>
-  <si>
-    <t>2010_togo</t>
-  </si>
-  <si>
-    <t>2010_haiti</t>
-  </si>
-  <si>
-    <t>2010_nicaragua</t>
-  </si>
-  <si>
-    <t>2010_paraguay</t>
-  </si>
-  <si>
-    <t>2010_peru</t>
-  </si>
-  <si>
-    <t>2010_tailandia</t>
-  </si>
-  <si>
-    <t>2011_guinea ecuatorial</t>
-  </si>
-  <si>
-    <t>2011_benin</t>
-  </si>
-  <si>
-    <t>2011_guinea</t>
-  </si>
-  <si>
-    <t>2011_togo</t>
-  </si>
-  <si>
-    <t>2011_argentina</t>
-  </si>
-  <si>
-    <t>2011_paraguay</t>
-  </si>
-  <si>
-    <t>2011_peru</t>
-  </si>
-  <si>
-    <t>2011_tailandia</t>
   </si>
   <si>
     <t>2012_peru</t>
@@ -678,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO68"/>
+  <dimension ref="A1:AO48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -820,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2870.311589353206</v>
+        <v>4744.762791189912</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -897,14 +837,8 @@
       <c r="AC2">
         <v>1</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
       <c r="AF2">
-        <v>2565774</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>147158</v>
@@ -922,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
@@ -931,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="AO2">
-        <v>9677</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -942,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3972.630273980753</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17802</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -978,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>44110</v>
+        <v>38228.02</v>
       </c>
       <c r="P3">
-        <v>103048</v>
+        <v>89879.97</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>147158</v>
+        <v>128108.04</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1020,16 +954,16 @@
         <v>1</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>3740606</v>
+        <v>623636.9</v>
       </c>
       <c r="AG3">
-        <v>147158</v>
+        <v>128108.04</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -1053,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="AO3">
-        <v>19239</v>
+        <v>5795</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1064,13 +998,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4729.735976516416</v>
+        <v>4394.543881413723</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23804</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1100,22 +1034,22 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>44110</v>
+        <v>38228.02</v>
       </c>
       <c r="P4">
-        <v>103048</v>
+        <v>89879.97</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>147158</v>
+        <v>128108.04</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1142,16 +1076,16 @@
         <v>1</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>5201043</v>
+        <v>960427.9</v>
       </c>
       <c r="AG4">
-        <v>147158</v>
+        <v>128108.04</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -1175,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="AO4">
-        <v>10176</v>
+        <v>9968</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1186,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4744.762791189912</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1222,22 +1156,22 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>44110</v>
+        <v>38228.02</v>
       </c>
       <c r="P5">
-        <v>103048</v>
+        <v>89879.97</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>147158</v>
+        <v>128108.04</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1264,16 +1198,16 @@
         <v>1</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1397634.516666667</v>
       </c>
       <c r="AG5">
-        <v>147158</v>
+        <v>128108.04</v>
       </c>
       <c r="AH5">
         <v>1</v>
@@ -1288,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -1297,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="AO5">
-        <v>6250</v>
+        <v>4842.5</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1308,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>3587.883798243964</v>
+        <v>3748.449444923865</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1344,22 +1278,22 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>42079</v>
+        <v>38228.02</v>
       </c>
       <c r="P6">
-        <v>96998</v>
+        <v>89879.97</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>139077</v>
+        <v>128108.04</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1386,16 +1320,16 @@
         <v>1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>14100000</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>139077</v>
+        <v>128108.04</v>
       </c>
       <c r="AH6">
         <v>1</v>
@@ -1419,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="AO6">
-        <v>11565</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1430,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>17288.8595992193</v>
+        <v>18254.09644617555</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1466,22 +1400,22 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>42079</v>
+        <v>38228.02</v>
       </c>
       <c r="P7">
-        <v>96998</v>
+        <v>89879.97</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>139077</v>
+        <v>128108.04</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1508,16 +1442,16 @@
         <v>1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>9912922</v>
+        <v>700000</v>
       </c>
       <c r="AG7">
-        <v>139077</v>
+        <v>128108.04</v>
       </c>
       <c r="AH7">
         <v>1</v>
@@ -1541,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="AO7">
-        <v>7000</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1549,10 +1483,10 @@
         <v>47</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>672.4244025624427</v>
+        <v>1057.667740311969</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1588,22 +1522,22 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>42079</v>
+        <v>38228.02</v>
       </c>
       <c r="P8">
-        <v>96998</v>
+        <v>89879.97</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>139077</v>
+        <v>128108.04</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1630,16 +1564,16 @@
         <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>694528</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>139077</v>
+        <v>128108.04</v>
       </c>
       <c r="AH8">
         <v>1</v>
@@ -1663,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="AO8">
-        <v>10000</v>
+        <v>3393.93</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1671,10 +1605,10 @@
         <v>48</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>534.0443668101981</v>
+        <v>719.6981727039259</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1710,22 +1644,22 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>42079</v>
+        <v>38228.02</v>
       </c>
       <c r="P9">
-        <v>96998</v>
+        <v>89879.97</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>139077</v>
+        <v>128108.04</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1752,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1761,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>139077</v>
+        <v>128108.04</v>
       </c>
       <c r="AH9">
         <v>1</v>
@@ -1785,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="AO9">
-        <v>25200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1796,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>665.6274194933962</v>
+        <v>573.9239887389259</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1832,22 +1766,22 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>42079</v>
+        <v>38228.02</v>
       </c>
       <c r="P10">
-        <v>96998</v>
+        <v>89879.97</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>139077</v>
+        <v>128108.04</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1874,16 +1808,16 @@
         <v>1</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>12175312</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>139077</v>
+        <v>128108.04</v>
       </c>
       <c r="AH10">
         <v>1</v>
@@ -1898,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -1907,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="AO10">
-        <v>34365</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1918,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1503.870423231357</v>
+        <v>5437.877690816224</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1954,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>42079</v>
+        <v>38228.02</v>
       </c>
       <c r="P11">
-        <v>96998</v>
+        <v>89879.97</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>139077</v>
+        <v>128108.04</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1996,16 +1930,16 @@
         <v>1</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>18320809.5</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>139077</v>
+        <v>128108.04</v>
       </c>
       <c r="AH11">
         <v>1</v>
@@ -2020,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -2029,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="AO11">
-        <v>4353</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -2040,13 +1974,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4355.934938677345</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19239</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2076,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>42079</v>
+        <v>32669.63</v>
       </c>
       <c r="P12">
-        <v>96998</v>
+        <v>50366.17</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2091,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>139077</v>
+        <v>83035.8</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -2118,16 +2052,16 @@
         <v>1</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>10672204</v>
+        <v>747460</v>
       </c>
       <c r="AG12">
-        <v>139077</v>
+        <v>83035.8</v>
       </c>
       <c r="AH12">
         <v>1</v>
@@ -2151,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="AO12">
-        <v>15480</v>
+        <v>5795</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2162,13 +2096,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5082.354756663512</v>
+        <v>4699.493713911862</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10176</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2198,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>42079</v>
+        <v>32669.63</v>
       </c>
       <c r="P13">
-        <v>96998</v>
+        <v>50366.17</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -2213,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>139077</v>
+        <v>83035.8</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -2240,16 +2174,16 @@
         <v>1</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>27999397</v>
+        <v>747460</v>
       </c>
       <c r="AG13">
-        <v>139077</v>
+        <v>83035.8</v>
       </c>
       <c r="AH13">
         <v>1</v>
@@ -2273,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="AO13">
-        <v>5943</v>
+        <v>9968</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -2284,13 +2218,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5076.340174387075</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6250</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2320,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>42079</v>
+        <v>32669.63</v>
       </c>
       <c r="P14">
-        <v>96998</v>
+        <v>50366.17</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -2335,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>139077</v>
+        <v>83035.8</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -2362,16 +2296,16 @@
         <v>1</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>747460</v>
       </c>
       <c r="AG14">
-        <v>139077</v>
+        <v>83035.8</v>
       </c>
       <c r="AH14">
         <v>1</v>
@@ -2386,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -2395,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="AO14">
-        <v>10000</v>
+        <v>4842.5</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -2406,13 +2340,13 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>17610.30663334184</v>
+        <v>3796.882621798447</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2442,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>40488</v>
+        <v>32669.63</v>
       </c>
       <c r="P15">
-        <v>69611</v>
+        <v>50366.17</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2457,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>110099</v>
+        <v>83035.8</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -2484,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2493,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>110099</v>
+        <v>83035.8</v>
       </c>
       <c r="AH15">
         <v>1</v>
@@ -2508,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -2517,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="AO15">
-        <v>6500</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2528,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>1037.747039954749</v>
+        <v>16764.42871195103</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2564,10 +2498,10 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>40488</v>
+        <v>32669.63</v>
       </c>
       <c r="P16">
-        <v>69611</v>
+        <v>50366.17</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -2579,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>110099</v>
+        <v>83035.8</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -2606,16 +2540,16 @@
         <v>1</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>725000</v>
       </c>
       <c r="AG16">
-        <v>110099</v>
+        <v>83035.8</v>
       </c>
       <c r="AH16">
         <v>1</v>
@@ -2630,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -2639,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="AO16">
-        <v>11240</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2647,16 +2581,16 @@
         <v>56</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>694.6031345426339</v>
+        <v>1102.527430026863</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2686,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>40488</v>
+        <v>32669.63</v>
       </c>
       <c r="P17">
-        <v>69611</v>
+        <v>50366.17</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2701,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>110099</v>
+        <v>83035.8</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -2728,16 +2662,16 @@
         <v>1</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>370739</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>110099</v>
+        <v>83035.8</v>
       </c>
       <c r="AH17">
         <v>1</v>
@@ -2761,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="AO17">
-        <v>7442</v>
+        <v>3393.93</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -2769,16 +2703,16 @@
         <v>57</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>553.2014555484933</v>
+        <v>731.5588677998553</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>25200</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2808,10 +2742,10 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>40488</v>
+        <v>32669.63</v>
       </c>
       <c r="P18">
-        <v>69611</v>
+        <v>50366.17</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -2823,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>110099</v>
+        <v>83035.8</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2850,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -2859,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>110099</v>
+        <v>83035.8</v>
       </c>
       <c r="AH18">
         <v>1</v>
@@ -2883,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="AO18">
-        <v>20500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -2891,10 +2825,10 @@
         <v>58</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>10883.31535948899</v>
+        <v>593.1620921048029</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2930,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>40488</v>
+        <v>32669.63</v>
       </c>
       <c r="P19">
-        <v>69611</v>
+        <v>50366.17</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -2945,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>110099</v>
+        <v>83035.8</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2972,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -2981,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>110099</v>
+        <v>83035.8</v>
       </c>
       <c r="AH19">
         <v>1</v>
@@ -2996,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19">
         <v>0</v>
@@ -3005,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="AO19">
-        <v>4735</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -3016,13 +2950,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4479.398934239905</v>
+        <v>5558.73713990153</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15480</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3052,10 +2986,10 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>40488</v>
+        <v>32669.63</v>
       </c>
       <c r="P20">
-        <v>69611</v>
+        <v>50366.17</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -3067,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>110099</v>
+        <v>83035.8</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -3094,16 +3028,16 @@
         <v>1</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>1859221</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>110099</v>
+        <v>83035.8</v>
       </c>
       <c r="AH20">
         <v>1</v>
@@ -3118,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -3127,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="AO20">
-        <v>20656</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -3135,16 +3069,16 @@
         <v>60</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>5360.226632400601</v>
+        <v>1140.447753778042</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5943</v>
+        <v>3393.93</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3174,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>40488</v>
+        <v>32436.46</v>
       </c>
       <c r="P21">
-        <v>69611</v>
+        <v>49491.3</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -3189,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>110099</v>
+        <v>81927.76000000001</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -3216,16 +3150,16 @@
         <v>1</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>2304887</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>110099</v>
+        <v>81927.76000000001</v>
       </c>
       <c r="AH21">
         <v>1</v>
@@ -3240,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -3249,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="AO21">
-        <v>17369</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -3260,13 +3194,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5094.472660592368</v>
+        <v>741.0381351906716</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3296,10 +3230,10 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>40488</v>
+        <v>32436.46</v>
       </c>
       <c r="P22">
-        <v>69611</v>
+        <v>49491.3</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -3311,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>110099</v>
+        <v>81927.76000000001</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -3338,7 +3272,7 @@
         <v>1</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -3347,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>110099</v>
+        <v>81927.76000000001</v>
       </c>
       <c r="AH22">
         <v>1</v>
@@ -3371,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="AO22">
-        <v>14000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -3379,16 +3313,16 @@
         <v>62</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>5642.578115155247</v>
+        <v>16146.07242861928</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17369</v>
+        <v>2750</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3418,22 +3352,22 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>38228.02</v>
+        <v>32436.46</v>
       </c>
       <c r="P23">
-        <v>89879.97</v>
+        <v>49491.3</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>128108.04</v>
+        <v>81927.76000000001</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -3466,10 +3400,10 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>623636.9</v>
+        <v>2500000</v>
       </c>
       <c r="AG23">
-        <v>128108.04</v>
+        <v>81927.76000000001</v>
       </c>
       <c r="AH23">
         <v>1</v>
@@ -3493,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="AO23">
-        <v>5795</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -3504,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4394.543881413723</v>
+        <v>6753.607115829548</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>20656</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3540,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>38228.02</v>
+        <v>32436.46</v>
       </c>
       <c r="P24">
-        <v>89879.97</v>
+        <v>49491.3</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>128108.04</v>
+        <v>81927.76000000001</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -3588,10 +3522,10 @@
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>960427.9</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>128108.04</v>
+        <v>81927.76000000001</v>
       </c>
       <c r="AH24">
         <v>1</v>
@@ -3606,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24">
         <v>0</v>
@@ -3615,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="AO24">
-        <v>9968</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -3626,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2999.422762626143</v>
+        <v>4861.287098802361</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>9968</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3662,22 +3596,22 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>38228.02</v>
+        <v>32436.46</v>
       </c>
       <c r="P25">
-        <v>89879.97</v>
+        <v>49491.3</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>128108.04</v>
+        <v>81927.76000000001</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -3710,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>1397634.516666667</v>
+        <v>5885000</v>
       </c>
       <c r="AG25">
-        <v>128108.04</v>
+        <v>81927.76000000001</v>
       </c>
       <c r="AH25">
         <v>1</v>
@@ -3737,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="AO25">
-        <v>4842.5</v>
+        <v>12430</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -3745,16 +3679,16 @@
         <v>65</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>3748.449444923865</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>5795</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3784,22 +3718,22 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>38228.02</v>
+        <v>32436.46</v>
       </c>
       <c r="P26">
-        <v>89879.97</v>
+        <v>49491.3</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>128108.04</v>
+        <v>81927.76000000001</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -3832,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>6615978</v>
       </c>
       <c r="AG26">
-        <v>128108.04</v>
+        <v>81927.76000000001</v>
       </c>
       <c r="AH26">
         <v>1</v>
@@ -3850,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26">
         <v>0</v>
@@ -3859,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="AO26">
-        <v>5800</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -3867,16 +3801,16 @@
         <v>66</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>18254.09644617555</v>
+        <v>9306.24338328295</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3906,22 +3840,22 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>38228.02</v>
+        <v>32436.46</v>
       </c>
       <c r="P27">
-        <v>89879.97</v>
+        <v>49491.3</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>128108.04</v>
+        <v>81927.76000000001</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -3954,10 +3888,10 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>128108.04</v>
+        <v>81927.76000000001</v>
       </c>
       <c r="AH27">
         <v>1</v>
@@ -3972,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
         <v>0</v>
@@ -3981,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="AO27">
-        <v>2750</v>
+        <v>750</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -3989,16 +3923,16 @@
         <v>67</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1057.667740311969</v>
+        <v>5589.325590947018</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>11240</v>
+        <v>4000</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4028,22 +3962,22 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>38228.02</v>
+        <v>32436.46</v>
       </c>
       <c r="P28">
-        <v>89879.97</v>
+        <v>49491.3</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>128108.04</v>
+        <v>81927.76000000001</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -4079,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>128108.04</v>
+        <v>81927.76000000001</v>
       </c>
       <c r="AH28">
         <v>1</v>
@@ -4103,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="AO28">
-        <v>3393.93</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -4111,16 +4045,16 @@
         <v>68</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>719.6981727039259</v>
+        <v>612.1489724037899</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>7442</v>
+        <v>3250</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -4150,22 +4084,22 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>38228.02</v>
+        <v>32436.46</v>
       </c>
       <c r="P29">
-        <v>89879.97</v>
+        <v>49491.3</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>128108.04</v>
+        <v>81927.76000000001</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -4201,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="AG29">
-        <v>128108.04</v>
+        <v>81927.76000000001</v>
       </c>
       <c r="AH29">
         <v>1</v>
@@ -4225,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="AO29">
-        <v>5000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -4236,13 +4170,13 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>573.9239887389259</v>
+        <v>1128.996380299766</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>20500</v>
+        <v>3393.93</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -4272,22 +4206,22 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>38228.02</v>
+        <v>31321.46</v>
       </c>
       <c r="P30">
-        <v>89879.97</v>
+        <v>97474.77</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>128108.04</v>
+        <v>128796.23</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -4323,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="AG30">
-        <v>128108.04</v>
+        <v>128796.23</v>
       </c>
       <c r="AH30">
         <v>1</v>
@@ -4347,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="AO30">
-        <v>3250</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -4358,13 +4292,13 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>5437.877690816224</v>
+        <v>750.4706590411453</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -4394,22 +4328,22 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>38228.02</v>
+        <v>31321.46</v>
       </c>
       <c r="P31">
-        <v>89879.97</v>
+        <v>97474.77</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>128108.04</v>
+        <v>128796.23</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -4442,10 +4376,10 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>245110</v>
       </c>
       <c r="AG31">
-        <v>128108.04</v>
+        <v>128796.23</v>
       </c>
       <c r="AH31">
         <v>1</v>
@@ -4469,7 +4403,7 @@
         <v>1</v>
       </c>
       <c r="AO31">
-        <v>4000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -4477,16 +4411,16 @@
         <v>71</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>5919.20956823756</v>
+        <v>14093.81249338665</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>17369</v>
+        <v>2750</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -4516,10 +4450,10 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>32669.63</v>
+        <v>31321.46</v>
       </c>
       <c r="P32">
-        <v>50366.17</v>
+        <v>97474.77</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -4531,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>83035.8</v>
+        <v>128796.23</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -4564,10 +4498,10 @@
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>747460</v>
+        <v>428770</v>
       </c>
       <c r="AG32">
-        <v>83035.8</v>
+        <v>128796.23</v>
       </c>
       <c r="AH32">
         <v>1</v>
@@ -4591,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="AO32">
-        <v>5795</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -4602,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>4699.493713911862</v>
+        <v>6487.899081675427</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>20656</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -4638,10 +4572,10 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>32669.63</v>
+        <v>31321.46</v>
       </c>
       <c r="P33">
-        <v>50366.17</v>
+        <v>97474.77</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -4653,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>83035.8</v>
+        <v>128796.23</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -4686,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>747460</v>
+        <v>2222999</v>
       </c>
       <c r="AG33">
-        <v>83035.8</v>
+        <v>128796.23</v>
       </c>
       <c r="AH33">
         <v>1</v>
@@ -4704,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -4713,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="AO33">
-        <v>9968</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -4724,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>3056.152683606517</v>
+        <v>4944.191641077407</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>9968</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -4760,10 +4694,10 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>32669.63</v>
+        <v>31321.46</v>
       </c>
       <c r="P34">
-        <v>50366.17</v>
+        <v>97474.77</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -4775,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>83035.8</v>
+        <v>128796.23</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -4808,10 +4742,10 @@
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>747460</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>83035.8</v>
+        <v>128796.23</v>
       </c>
       <c r="AH34">
         <v>1</v>
@@ -4835,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="AO34">
-        <v>4842.5</v>
+        <v>12430</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -4843,16 +4777,16 @@
         <v>74</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>3796.882621798447</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>5795</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -4882,10 +4816,10 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>32669.63</v>
+        <v>31321.46</v>
       </c>
       <c r="P35">
-        <v>50366.17</v>
+        <v>97474.77</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -4897,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>83035.8</v>
+        <v>128796.23</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -4930,10 +4864,10 @@
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>753508</v>
       </c>
       <c r="AG35">
-        <v>83035.8</v>
+        <v>128796.23</v>
       </c>
       <c r="AH35">
         <v>1</v>
@@ -4948,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35">
         <v>0</v>
@@ -4957,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="AO35">
-        <v>5800</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -4965,16 +4899,16 @@
         <v>75</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>16764.42871195103</v>
+        <v>9712.081402446996</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -5004,10 +4938,10 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>32669.63</v>
+        <v>31321.46</v>
       </c>
       <c r="P36">
-        <v>50366.17</v>
+        <v>97474.77</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -5019,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>83035.8</v>
+        <v>128796.23</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -5052,10 +4986,10 @@
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>725000</v>
+        <v>0</v>
       </c>
       <c r="AG36">
-        <v>83035.8</v>
+        <v>128796.23</v>
       </c>
       <c r="AH36">
         <v>1</v>
@@ -5070,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
         <v>0</v>
@@ -5079,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="AO36">
-        <v>2750</v>
+        <v>750</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -5087,16 +5021,16 @@
         <v>76</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1102.527430026863</v>
+        <v>5741.353911483523</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>11240</v>
+        <v>4000</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -5126,10 +5060,10 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>32669.63</v>
+        <v>31321.46</v>
       </c>
       <c r="P37">
-        <v>50366.17</v>
+        <v>97474.77</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -5141,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <v>83035.8</v>
+        <v>128796.23</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -5177,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="AG37">
-        <v>83035.8</v>
+        <v>128796.23</v>
       </c>
       <c r="AH37">
         <v>1</v>
@@ -5201,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="AO37">
-        <v>3393.93</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -5209,16 +5143,16 @@
         <v>77</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>731.5588677998553</v>
+        <v>630.9372503341563</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>7442</v>
+        <v>3250</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5248,10 +5182,10 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>32669.63</v>
+        <v>31321.46</v>
       </c>
       <c r="P38">
-        <v>50366.17</v>
+        <v>97474.77</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -5263,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>83035.8</v>
+        <v>128796.23</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -5299,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="AG38">
-        <v>83035.8</v>
+        <v>128796.23</v>
       </c>
       <c r="AH38">
         <v>1</v>
@@ -5323,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="AO38">
-        <v>5000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -5334,13 +5268,13 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>593.1620921048029</v>
+        <v>1134.924536209078</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>20500</v>
+        <v>2500</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -5370,10 +5304,10 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>32669.63</v>
+        <v>29848</v>
       </c>
       <c r="P39">
-        <v>50366.17</v>
+        <v>83058</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -5385,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>83035.8</v>
+        <v>112906</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -5412,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="AD39">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE39">
         <v>0</v>
@@ -5421,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="AG39">
-        <v>83035.8</v>
+        <v>112906</v>
       </c>
       <c r="AH39">
         <v>1</v>
@@ -5445,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="AO39">
-        <v>3250</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -5453,16 +5387,16 @@
         <v>79</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>5558.73713990153</v>
+        <v>12358.30403621203</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>14000</v>
+        <v>1750</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -5492,10 +5426,10 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>32669.63</v>
+        <v>29848</v>
       </c>
       <c r="P40">
-        <v>50366.17</v>
+        <v>83058</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -5507,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <v>83035.8</v>
+        <v>112906</v>
       </c>
       <c r="U40">
         <v>0</v>
@@ -5534,16 +5468,16 @@
         <v>1</v>
       </c>
       <c r="AD40">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE40">
         <v>0</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>563201</v>
       </c>
       <c r="AG40">
-        <v>83035.8</v>
+        <v>112906</v>
       </c>
       <c r="AH40">
         <v>1</v>
@@ -5558,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM40">
         <v>0</v>
@@ -5567,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="AO40">
-        <v>4000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="41" spans="1:41">
@@ -5575,16 +5509,16 @@
         <v>80</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>1140.447753778042</v>
+        <v>1875.732161108182</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>3393.93</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -5614,10 +5548,10 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>32436.46</v>
+        <v>29848</v>
       </c>
       <c r="P41">
-        <v>49491.3</v>
+        <v>83058</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -5629,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <v>81927.76000000001</v>
+        <v>112906</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -5656,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="AD41">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE41">
         <v>0</v>
@@ -5665,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="AG41">
-        <v>81927.76000000001</v>
+        <v>112906</v>
       </c>
       <c r="AH41">
         <v>1</v>
@@ -5689,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="AO41">
-        <v>2500</v>
+        <v>6062</v>
       </c>
     </row>
     <row r="42" spans="1:41">
@@ -5700,13 +5634,13 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>741.0381351906716</v>
+        <v>1129.713195979213</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -5736,10 +5670,10 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>32436.46</v>
+        <v>29848</v>
       </c>
       <c r="P42">
-        <v>49491.3</v>
+        <v>83058</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -5751,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>81927.76000000001</v>
+        <v>112906</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -5778,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="AD42">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE42">
         <v>0</v>
@@ -5787,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="AG42">
-        <v>81927.76000000001</v>
+        <v>112906</v>
       </c>
       <c r="AH42">
         <v>1</v>
@@ -5811,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="AO42">
-        <v>3000</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="43" spans="1:41">
@@ -5819,16 +5753,16 @@
         <v>82</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>16146.07242861928</v>
+        <v>6411.986543373589</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>2750</v>
+        <v>1000</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5858,10 +5792,10 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <v>32436.46</v>
+        <v>29848</v>
       </c>
       <c r="P43">
-        <v>49491.3</v>
+        <v>83058</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -5873,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>81927.76000000001</v>
+        <v>112906</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -5900,16 +5834,16 @@
         <v>1</v>
       </c>
       <c r="AD43">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE43">
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>2500000</v>
+        <v>350000</v>
       </c>
       <c r="AG43">
-        <v>81927.76000000001</v>
+        <v>112906</v>
       </c>
       <c r="AH43">
         <v>1</v>
@@ -5924,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
         <v>0</v>
@@ -5933,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="AO43">
-        <v>1750</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="44" spans="1:41">
@@ -5944,13 +5878,13 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>6753.607115829548</v>
+        <v>5089.61202008711</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>12430</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -5980,10 +5914,10 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <v>32436.46</v>
+        <v>29848</v>
       </c>
       <c r="P44">
-        <v>49491.3</v>
+        <v>83058</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -5995,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>81927.76000000001</v>
+        <v>112906</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -6022,16 +5956,16 @@
         <v>1</v>
       </c>
       <c r="AD44">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE44">
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>662187</v>
       </c>
       <c r="AG44">
-        <v>81927.76000000001</v>
+        <v>112906</v>
       </c>
       <c r="AH44">
         <v>1</v>
@@ -6046,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM44">
         <v>0</v>
@@ -6055,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="AO44">
-        <v>1000</v>
+        <v>17910</v>
       </c>
     </row>
     <row r="45" spans="1:41">
@@ -6066,13 +6000,13 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>4861.287098802361</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>9968</v>
+        <v>5200</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -6102,10 +6036,10 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <v>32436.46</v>
+        <v>29848</v>
       </c>
       <c r="P45">
-        <v>49491.3</v>
+        <v>83058</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -6117,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>81927.76000000001</v>
+        <v>112906</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -6144,16 +6078,16 @@
         <v>1</v>
       </c>
       <c r="AD45">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE45">
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>5885000</v>
+        <v>822168</v>
       </c>
       <c r="AG45">
-        <v>81927.76000000001</v>
+        <v>112906</v>
       </c>
       <c r="AH45">
         <v>1</v>
@@ -6177,7 +6111,7 @@
         <v>1</v>
       </c>
       <c r="AO45">
-        <v>12430</v>
+        <v>13465</v>
       </c>
     </row>
     <row r="46" spans="1:41">
@@ -6188,13 +6122,13 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>5996.49696468919</v>
+        <v>10236.89594140222</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>5795</v>
+        <v>750</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -6224,10 +6158,10 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>32436.46</v>
+        <v>29848</v>
       </c>
       <c r="P46">
-        <v>49491.3</v>
+        <v>83058</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -6239,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <v>81927.76000000001</v>
+        <v>112906</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -6266,16 +6200,16 @@
         <v>1</v>
       </c>
       <c r="AD46">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE46">
         <v>0</v>
       </c>
       <c r="AF46">
-        <v>6615978</v>
+        <v>0</v>
       </c>
       <c r="AG46">
-        <v>81927.76000000001</v>
+        <v>112906</v>
       </c>
       <c r="AH46">
         <v>1</v>
@@ -6290,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
         <v>0</v>
@@ -6299,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="AO46">
-        <v>5200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47" spans="1:41">
@@ -6310,13 +6244,13 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>9306.24338328295</v>
+        <v>5916.126072105049</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -6346,10 +6280,10 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>32436.46</v>
+        <v>29848</v>
       </c>
       <c r="P47">
-        <v>49491.3</v>
+        <v>83058</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -6361,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>81927.76000000001</v>
+        <v>112906</v>
       </c>
       <c r="U47">
         <v>0</v>
@@ -6388,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="AD47">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE47">
         <v>0</v>
@@ -6397,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="AG47">
-        <v>81927.76000000001</v>
+        <v>112906</v>
       </c>
       <c r="AH47">
         <v>1</v>
@@ -6421,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="AO47">
-        <v>750</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -6429,16 +6363,16 @@
         <v>87</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>5589.325590947018</v>
+        <v>649.4459389945755</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -6468,10 +6402,10 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>32436.46</v>
+        <v>29848</v>
       </c>
       <c r="P48">
-        <v>49491.3</v>
+        <v>83058</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -6483,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>81927.76000000001</v>
+        <v>112906</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -6510,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="AD48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE48">
         <v>0</v>
@@ -6519,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="AG48">
-        <v>81927.76000000001</v>
+        <v>112906</v>
       </c>
       <c r="AH48">
         <v>1</v>
@@ -6543,2446 +6477,6 @@
         <v>1</v>
       </c>
       <c r="AO48">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:41">
-      <c r="A49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>612.1489724037899</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>3250</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>32436.46</v>
-      </c>
-      <c r="P49">
-        <v>49491.3</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>81927.76000000001</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-      <c r="AC49">
-        <v>1</v>
-      </c>
-      <c r="AD49">
-        <v>9</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
-        <v>0</v>
-      </c>
-      <c r="AG49">
-        <v>81927.76000000001</v>
-      </c>
-      <c r="AH49">
-        <v>1</v>
-      </c>
-      <c r="AI49">
-        <v>0</v>
-      </c>
-      <c r="AJ49">
-        <v>1987</v>
-      </c>
-      <c r="AK49">
-        <v>0</v>
-      </c>
-      <c r="AL49">
-        <v>0</v>
-      </c>
-      <c r="AM49">
-        <v>0</v>
-      </c>
-      <c r="AN49">
-        <v>1</v>
-      </c>
-      <c r="AO49">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:41">
-      <c r="A50" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>1128.996380299766</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>3393.93</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>31321.46</v>
-      </c>
-      <c r="P50">
-        <v>97474.77</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>128796.23</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <v>1</v>
-      </c>
-      <c r="AD50">
-        <v>9</v>
-      </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
-      <c r="AF50">
-        <v>0</v>
-      </c>
-      <c r="AG50">
-        <v>128796.23</v>
-      </c>
-      <c r="AH50">
-        <v>1</v>
-      </c>
-      <c r="AI50">
-        <v>0</v>
-      </c>
-      <c r="AJ50">
-        <v>1987</v>
-      </c>
-      <c r="AK50">
-        <v>0</v>
-      </c>
-      <c r="AL50">
-        <v>0</v>
-      </c>
-      <c r="AM50">
-        <v>0</v>
-      </c>
-      <c r="AN50">
-        <v>1</v>
-      </c>
-      <c r="AO50">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="51" spans="1:41">
-      <c r="A51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>750.4706590411453</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>5000</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>31321.46</v>
-      </c>
-      <c r="P51">
-        <v>97474.77</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>128796.23</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <v>1</v>
-      </c>
-      <c r="AD51">
-        <v>9</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51">
-        <v>245110</v>
-      </c>
-      <c r="AG51">
-        <v>128796.23</v>
-      </c>
-      <c r="AH51">
-        <v>1</v>
-      </c>
-      <c r="AI51">
-        <v>0</v>
-      </c>
-      <c r="AJ51">
-        <v>1987</v>
-      </c>
-      <c r="AK51">
-        <v>0</v>
-      </c>
-      <c r="AL51">
-        <v>0</v>
-      </c>
-      <c r="AM51">
-        <v>0</v>
-      </c>
-      <c r="AN51">
-        <v>1</v>
-      </c>
-      <c r="AO51">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:41">
-      <c r="A52" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>14093.81249338665</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>2750</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>31321.46</v>
-      </c>
-      <c r="P52">
-        <v>97474.77</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>128796.23</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
-      <c r="AC52">
-        <v>1</v>
-      </c>
-      <c r="AD52">
-        <v>9</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-      <c r="AF52">
-        <v>428770</v>
-      </c>
-      <c r="AG52">
-        <v>128796.23</v>
-      </c>
-      <c r="AH52">
-        <v>1</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
-      <c r="AJ52">
-        <v>1987</v>
-      </c>
-      <c r="AK52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
-        <v>1</v>
-      </c>
-      <c r="AM52">
-        <v>0</v>
-      </c>
-      <c r="AN52">
-        <v>1</v>
-      </c>
-      <c r="AO52">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="53" spans="1:41">
-      <c r="A53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>6487.899081675427</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>31321.46</v>
-      </c>
-      <c r="P53">
-        <v>97474.77</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>128796.23</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>1</v>
-      </c>
-      <c r="AD53">
-        <v>9</v>
-      </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-      <c r="AF53">
-        <v>2222999</v>
-      </c>
-      <c r="AG53">
-        <v>128796.23</v>
-      </c>
-      <c r="AH53">
-        <v>1</v>
-      </c>
-      <c r="AI53">
-        <v>0</v>
-      </c>
-      <c r="AJ53">
-        <v>1987</v>
-      </c>
-      <c r="AK53">
-        <v>0</v>
-      </c>
-      <c r="AL53">
-        <v>0</v>
-      </c>
-      <c r="AM53">
-        <v>0</v>
-      </c>
-      <c r="AN53">
-        <v>1</v>
-      </c>
-      <c r="AO53">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:41">
-      <c r="A54" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>4944.191641077407</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>9968</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>31321.46</v>
-      </c>
-      <c r="P54">
-        <v>97474.77</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>128796.23</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>1</v>
-      </c>
-      <c r="AD54">
-        <v>9</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
-      <c r="AG54">
-        <v>128796.23</v>
-      </c>
-      <c r="AH54">
-        <v>1</v>
-      </c>
-      <c r="AI54">
-        <v>0</v>
-      </c>
-      <c r="AJ54">
-        <v>1987</v>
-      </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>1</v>
-      </c>
-      <c r="AM54">
-        <v>0</v>
-      </c>
-      <c r="AN54">
-        <v>1</v>
-      </c>
-      <c r="AO54">
-        <v>12430</v>
-      </c>
-    </row>
-    <row r="55" spans="1:41">
-      <c r="A55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>6114.227214287786</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>5795</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>31321.46</v>
-      </c>
-      <c r="P55">
-        <v>97474.77</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>128796.23</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <v>1</v>
-      </c>
-      <c r="AD55">
-        <v>9</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <v>753508</v>
-      </c>
-      <c r="AG55">
-        <v>128796.23</v>
-      </c>
-      <c r="AH55">
-        <v>1</v>
-      </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
-      <c r="AJ55">
-        <v>1987</v>
-      </c>
-      <c r="AK55">
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <v>1</v>
-      </c>
-      <c r="AM55">
-        <v>0</v>
-      </c>
-      <c r="AN55">
-        <v>1</v>
-      </c>
-      <c r="AO55">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:41">
-      <c r="A56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>9712.081402446996</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>31321.46</v>
-      </c>
-      <c r="P56">
-        <v>97474.77</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>128796.23</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <v>0</v>
-      </c>
-      <c r="AC56">
-        <v>1</v>
-      </c>
-      <c r="AD56">
-        <v>9</v>
-      </c>
-      <c r="AE56">
-        <v>0</v>
-      </c>
-      <c r="AF56">
-        <v>0</v>
-      </c>
-      <c r="AG56">
-        <v>128796.23</v>
-      </c>
-      <c r="AH56">
-        <v>1</v>
-      </c>
-      <c r="AI56">
-        <v>0</v>
-      </c>
-      <c r="AJ56">
-        <v>1987</v>
-      </c>
-      <c r="AK56">
-        <v>0</v>
-      </c>
-      <c r="AL56">
-        <v>0</v>
-      </c>
-      <c r="AM56">
-        <v>0</v>
-      </c>
-      <c r="AN56">
-        <v>1</v>
-      </c>
-      <c r="AO56">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="57" spans="1:41">
-      <c r="A57" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>5741.353911483523</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>4000</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>31321.46</v>
-      </c>
-      <c r="P57">
-        <v>97474.77</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>128796.23</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
-      <c r="AC57">
-        <v>1</v>
-      </c>
-      <c r="AD57">
-        <v>9</v>
-      </c>
-      <c r="AE57">
-        <v>0</v>
-      </c>
-      <c r="AF57">
-        <v>0</v>
-      </c>
-      <c r="AG57">
-        <v>128796.23</v>
-      </c>
-      <c r="AH57">
-        <v>1</v>
-      </c>
-      <c r="AI57">
-        <v>0</v>
-      </c>
-      <c r="AJ57">
-        <v>1987</v>
-      </c>
-      <c r="AK57">
-        <v>0</v>
-      </c>
-      <c r="AL57">
-        <v>0</v>
-      </c>
-      <c r="AM57">
-        <v>0</v>
-      </c>
-      <c r="AN57">
-        <v>1</v>
-      </c>
-      <c r="AO57">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:41">
-      <c r="A58" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>630.9372503341563</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>3250</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>31321.46</v>
-      </c>
-      <c r="P58">
-        <v>97474.77</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <v>128796.23</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-      <c r="AB58">
-        <v>0</v>
-      </c>
-      <c r="AC58">
-        <v>1</v>
-      </c>
-      <c r="AD58">
-        <v>9</v>
-      </c>
-      <c r="AE58">
-        <v>0</v>
-      </c>
-      <c r="AF58">
-        <v>0</v>
-      </c>
-      <c r="AG58">
-        <v>128796.23</v>
-      </c>
-      <c r="AH58">
-        <v>1</v>
-      </c>
-      <c r="AI58">
-        <v>0</v>
-      </c>
-      <c r="AJ58">
-        <v>1987</v>
-      </c>
-      <c r="AK58">
-        <v>0</v>
-      </c>
-      <c r="AL58">
-        <v>0</v>
-      </c>
-      <c r="AM58">
-        <v>0</v>
-      </c>
-      <c r="AN58">
-        <v>1</v>
-      </c>
-      <c r="AO58">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:41">
-      <c r="A59" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>1134.924536209078</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>2500</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>29848</v>
-      </c>
-      <c r="P59">
-        <v>83058</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <v>112906</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
-      <c r="AC59">
-        <v>1</v>
-      </c>
-      <c r="AD59">
-        <v>7</v>
-      </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
-      <c r="AF59">
-        <v>0</v>
-      </c>
-      <c r="AG59">
-        <v>112906</v>
-      </c>
-      <c r="AH59">
-        <v>1</v>
-      </c>
-      <c r="AI59">
-        <v>0</v>
-      </c>
-      <c r="AJ59">
-        <v>1987</v>
-      </c>
-      <c r="AK59">
-        <v>0</v>
-      </c>
-      <c r="AL59">
-        <v>0</v>
-      </c>
-      <c r="AM59">
-        <v>0</v>
-      </c>
-      <c r="AN59">
-        <v>1</v>
-      </c>
-      <c r="AO59">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:41">
-      <c r="A60" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>12358.30403621203</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>1750</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>29848</v>
-      </c>
-      <c r="P60">
-        <v>83058</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <v>112906</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <v>1</v>
-      </c>
-      <c r="AD60">
-        <v>7</v>
-      </c>
-      <c r="AE60">
-        <v>0</v>
-      </c>
-      <c r="AF60">
-        <v>563201</v>
-      </c>
-      <c r="AG60">
-        <v>112906</v>
-      </c>
-      <c r="AH60">
-        <v>1</v>
-      </c>
-      <c r="AI60">
-        <v>0</v>
-      </c>
-      <c r="AJ60">
-        <v>1987</v>
-      </c>
-      <c r="AK60">
-        <v>0</v>
-      </c>
-      <c r="AL60">
-        <v>1</v>
-      </c>
-      <c r="AM60">
-        <v>0</v>
-      </c>
-      <c r="AN60">
-        <v>1</v>
-      </c>
-      <c r="AO60">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="61" spans="1:41">
-      <c r="A61" t="s">
-        <v>100</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>1875.732161108182</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>29848</v>
-      </c>
-      <c r="P61">
-        <v>83058</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>112906</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
-      <c r="AC61">
-        <v>1</v>
-      </c>
-      <c r="AD61">
-        <v>7</v>
-      </c>
-      <c r="AE61">
-        <v>0</v>
-      </c>
-      <c r="AF61">
-        <v>0</v>
-      </c>
-      <c r="AG61">
-        <v>112906</v>
-      </c>
-      <c r="AH61">
-        <v>1</v>
-      </c>
-      <c r="AI61">
-        <v>0</v>
-      </c>
-      <c r="AJ61">
-        <v>1987</v>
-      </c>
-      <c r="AK61">
-        <v>0</v>
-      </c>
-      <c r="AL61">
-        <v>0</v>
-      </c>
-      <c r="AM61">
-        <v>0</v>
-      </c>
-      <c r="AN61">
-        <v>1</v>
-      </c>
-      <c r="AO61">
-        <v>6062</v>
-      </c>
-    </row>
-    <row r="62" spans="1:41">
-      <c r="A62" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>1129.713195979213</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>29848</v>
-      </c>
-      <c r="P62">
-        <v>83058</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <v>112906</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-      <c r="Z62">
-        <v>0</v>
-      </c>
-      <c r="AA62">
-        <v>0</v>
-      </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <v>1</v>
-      </c>
-      <c r="AD62">
-        <v>7</v>
-      </c>
-      <c r="AE62">
-        <v>0</v>
-      </c>
-      <c r="AF62">
-        <v>0</v>
-      </c>
-      <c r="AG62">
-        <v>112906</v>
-      </c>
-      <c r="AH62">
-        <v>1</v>
-      </c>
-      <c r="AI62">
-        <v>0</v>
-      </c>
-      <c r="AJ62">
-        <v>1987</v>
-      </c>
-      <c r="AK62">
-        <v>0</v>
-      </c>
-      <c r="AL62">
-        <v>0</v>
-      </c>
-      <c r="AM62">
-        <v>0</v>
-      </c>
-      <c r="AN62">
-        <v>1</v>
-      </c>
-      <c r="AO62">
-        <v>3080</v>
-      </c>
-    </row>
-    <row r="63" spans="1:41">
-      <c r="A63" t="s">
-        <v>102</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>6411.986543373589</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>1000</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>29848</v>
-      </c>
-      <c r="P63">
-        <v>83058</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <v>112906</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
-      <c r="AA63">
-        <v>0</v>
-      </c>
-      <c r="AB63">
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <v>1</v>
-      </c>
-      <c r="AD63">
-        <v>7</v>
-      </c>
-      <c r="AE63">
-        <v>0</v>
-      </c>
-      <c r="AF63">
-        <v>350000</v>
-      </c>
-      <c r="AG63">
-        <v>112906</v>
-      </c>
-      <c r="AH63">
-        <v>1</v>
-      </c>
-      <c r="AI63">
-        <v>0</v>
-      </c>
-      <c r="AJ63">
-        <v>1987</v>
-      </c>
-      <c r="AK63">
-        <v>0</v>
-      </c>
-      <c r="AL63">
-        <v>0</v>
-      </c>
-      <c r="AM63">
-        <v>0</v>
-      </c>
-      <c r="AN63">
-        <v>1</v>
-      </c>
-      <c r="AO63">
-        <v>5550</v>
-      </c>
-    </row>
-    <row r="64" spans="1:41">
-      <c r="A64" t="s">
-        <v>103</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>5089.61202008711</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>12430</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>29848</v>
-      </c>
-      <c r="P64">
-        <v>83058</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-      <c r="T64">
-        <v>112906</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-      <c r="AA64">
-        <v>0</v>
-      </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <v>1</v>
-      </c>
-      <c r="AD64">
-        <v>7</v>
-      </c>
-      <c r="AE64">
-        <v>0</v>
-      </c>
-      <c r="AF64">
-        <v>662187</v>
-      </c>
-      <c r="AG64">
-        <v>112906</v>
-      </c>
-      <c r="AH64">
-        <v>1</v>
-      </c>
-      <c r="AI64">
-        <v>0</v>
-      </c>
-      <c r="AJ64">
-        <v>1987</v>
-      </c>
-      <c r="AK64">
-        <v>0</v>
-      </c>
-      <c r="AL64">
-        <v>1</v>
-      </c>
-      <c r="AM64">
-        <v>0</v>
-      </c>
-      <c r="AN64">
-        <v>1</v>
-      </c>
-      <c r="AO64">
-        <v>17910</v>
-      </c>
-    </row>
-    <row r="65" spans="1:41">
-      <c r="A65" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>6262.368904654469</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>5200</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>29848</v>
-      </c>
-      <c r="P65">
-        <v>83058</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>112906</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>1</v>
-      </c>
-      <c r="AD65">
-        <v>7</v>
-      </c>
-      <c r="AE65">
-        <v>0</v>
-      </c>
-      <c r="AF65">
-        <v>822168</v>
-      </c>
-      <c r="AG65">
-        <v>112906</v>
-      </c>
-      <c r="AH65">
-        <v>1</v>
-      </c>
-      <c r="AI65">
-        <v>0</v>
-      </c>
-      <c r="AJ65">
-        <v>1987</v>
-      </c>
-      <c r="AK65">
-        <v>0</v>
-      </c>
-      <c r="AL65">
-        <v>1</v>
-      </c>
-      <c r="AM65">
-        <v>0</v>
-      </c>
-      <c r="AN65">
-        <v>1</v>
-      </c>
-      <c r="AO65">
-        <v>13465</v>
-      </c>
-    </row>
-    <row r="66" spans="1:41">
-      <c r="A66" t="s">
-        <v>105</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>10236.89594140222</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>750</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>29848</v>
-      </c>
-      <c r="P66">
-        <v>83058</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>112906</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <v>0</v>
-      </c>
-      <c r="AA66">
-        <v>0</v>
-      </c>
-      <c r="AB66">
-        <v>0</v>
-      </c>
-      <c r="AC66">
-        <v>1</v>
-      </c>
-      <c r="AD66">
-        <v>7</v>
-      </c>
-      <c r="AE66">
-        <v>0</v>
-      </c>
-      <c r="AF66">
-        <v>0</v>
-      </c>
-      <c r="AG66">
-        <v>112906</v>
-      </c>
-      <c r="AH66">
-        <v>1</v>
-      </c>
-      <c r="AI66">
-        <v>0</v>
-      </c>
-      <c r="AJ66">
-        <v>1987</v>
-      </c>
-      <c r="AK66">
-        <v>0</v>
-      </c>
-      <c r="AL66">
-        <v>0</v>
-      </c>
-      <c r="AM66">
-        <v>0</v>
-      </c>
-      <c r="AN66">
-        <v>1</v>
-      </c>
-      <c r="AO66">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:41">
-      <c r="A67" t="s">
-        <v>106</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>5916.126072105049</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>4000</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>29848</v>
-      </c>
-      <c r="P67">
-        <v>83058</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="T67">
-        <v>112906</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
-      <c r="AA67">
-        <v>0</v>
-      </c>
-      <c r="AB67">
-        <v>0</v>
-      </c>
-      <c r="AC67">
-        <v>1</v>
-      </c>
-      <c r="AD67">
-        <v>7</v>
-      </c>
-      <c r="AE67">
-        <v>0</v>
-      </c>
-      <c r="AF67">
-        <v>0</v>
-      </c>
-      <c r="AG67">
-        <v>112906</v>
-      </c>
-      <c r="AH67">
-        <v>1</v>
-      </c>
-      <c r="AI67">
-        <v>0</v>
-      </c>
-      <c r="AJ67">
-        <v>1987</v>
-      </c>
-      <c r="AK67">
-        <v>0</v>
-      </c>
-      <c r="AL67">
-        <v>0</v>
-      </c>
-      <c r="AM67">
-        <v>0</v>
-      </c>
-      <c r="AN67">
-        <v>1</v>
-      </c>
-      <c r="AO67">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:41">
-      <c r="A68" t="s">
-        <v>107</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>649.4459389945755</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>3000</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>29848</v>
-      </c>
-      <c r="P68">
-        <v>83058</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-      <c r="T68">
-        <v>112906</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-      <c r="Z68">
-        <v>0</v>
-      </c>
-      <c r="AA68">
-        <v>0</v>
-      </c>
-      <c r="AB68">
-        <v>0</v>
-      </c>
-      <c r="AC68">
-        <v>1</v>
-      </c>
-      <c r="AD68">
-        <v>7</v>
-      </c>
-      <c r="AE68">
-        <v>0</v>
-      </c>
-      <c r="AF68">
-        <v>0</v>
-      </c>
-      <c r="AG68">
-        <v>112906</v>
-      </c>
-      <c r="AH68">
-        <v>1</v>
-      </c>
-      <c r="AI68">
-        <v>0</v>
-      </c>
-      <c r="AJ68">
-        <v>1987</v>
-      </c>
-      <c r="AK68">
-        <v>0</v>
-      </c>
-      <c r="AL68">
-        <v>0</v>
-      </c>
-      <c r="AM68">
-        <v>0</v>
-      </c>
-      <c r="AN68">
-        <v>1</v>
-      </c>
-      <c r="AO68">
         <v>5000</v>
       </c>
     </row>
